--- a/resultados/comportamentoMMQ_slot03.xlsx
+++ b/resultados/comportamentoMMQ_slot03.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.782904792607283e-06</v>
+        <v>0.4287481624931127</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-143548.0954164767</v>
+        <v>123125.7751675017</v>
       </c>
       <c r="H2" t="n">
-        <v>6444779406.405201</v>
+        <v>652225685.8162574</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.03042634289721714</v>
+        <v>0.6121786968060948</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-469610533.6342145</v>
+        <v>2077128.557893953</v>
       </c>
       <c r="H3" t="n">
-        <v>8039821483.485247</v>
+        <v>648656657.0278221</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05750601677857149</v>
+        <v>0.4278224052797011</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002517606221749618</v>
+        <v>0.0001885712797862336</v>
       </c>
       <c r="H4" t="n">
-        <v>5623770913.385589</v>
+        <v>652223455.5009588</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.05750601677857149</v>
+        <v>0.4278224052797011</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.002520778053543</v>
+        <v>1.000188589060468</v>
       </c>
       <c r="H5" t="n">
-        <v>5623770913.385589</v>
+        <v>652223455.5009588</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.04237601927459354</v>
+        <v>0.6111454793920096</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05412162554938729</v>
+        <v>0.003181943885820556</v>
       </c>
       <c r="H6" t="n">
-        <v>5171794267.976261</v>
+        <v>648666756.3370882</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01059799785437043</v>
+        <v>0.7123346505300391</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7030904413.868475</v>
+        <v>648587942.6493345</v>
       </c>
       <c r="G7" t="n">
-        <v>-43560215.31491826</v>
+        <v>658246.9839718711</v>
       </c>
       <c r="H7" t="n">
-        <v>542708.3402437721</v>
+        <v>-16215.79420619354</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.00862177134832867</v>
+        <v>0.8546195824365274</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>22874727.5318152</v>
+        <v>64551.36835094314</v>
       </c>
       <c r="H8" t="n">
-        <v>5478834664.986197</v>
+        <v>653904294.8516937</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0004318691882966768</v>
+        <v>0.8320744933727988</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-97726389.56946374</v>
+        <v>663349.1997002794</v>
       </c>
       <c r="H9" t="n">
-        <v>6470734539.212842</v>
+        <v>653072726.3029791</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,7 +740,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0.8545423399402475</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -749,8 +751,12 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>9.861055122981919e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>653904612.6600547</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -758,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +772,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.8545423399402475</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -775,8 +783,12 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>1.00009861541341</v>
+      </c>
+      <c r="H11" t="n">
+        <v>653904612.6600547</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -784,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -792,7 +804,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0.832022969467384</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -801,8 +815,12 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.001013365987771692</v>
+      </c>
+      <c r="H12" t="n">
+        <v>653074444.1397021</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
+          <t>bcsstk12.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.009163357603706089</v>
+        <v>0.8616888318525289</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -827,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5708536579.766195</v>
+        <v>653713942.3058678</v>
       </c>
       <c r="G13" t="n">
-        <v>281096.569848261</v>
+        <v>102293.6834717777</v>
       </c>
       <c r="H13" t="n">
-        <v>376560.5160327833</v>
+        <v>-1640.970222642799</v>
       </c>
     </row>
     <row r="14">
@@ -842,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -851,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.09898473233220707</v>
+        <v>0.3069864013610493</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -862,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-34540968.10576875</v>
+        <v>24470.12411701283</v>
       </c>
       <c r="H14" t="n">
-        <v>1322016909.183076</v>
+        <v>43746469.36770207</v>
       </c>
     </row>
     <row r="15">
@@ -874,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.3070345963419571</v>
+        <v>0.5486354324708567</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -894,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-592580394.2718903</v>
+        <v>767809.4355936085</v>
       </c>
       <c r="H15" t="n">
-        <v>2257963255.765442</v>
+        <v>41994234.63695928</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.08785566487569758</v>
+        <v>0.302139128093758</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -926,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01446723229478183</v>
+        <v>0.0005610820175605574</v>
       </c>
       <c r="H16" t="n">
-        <v>865347907.1555477</v>
+        <v>43733275.44160744</v>
       </c>
     </row>
     <row r="17">
@@ -938,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -947,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.08785566487569758</v>
+        <v>0.302139128093758</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -958,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9856369152631295</v>
+        <v>1.000561239453519</v>
       </c>
       <c r="H17" t="n">
-        <v>865347907.1555477</v>
+        <v>43733275.44160744</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2825624255732765</v>
+        <v>0.5420821458747727</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -990,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2527324440890055</v>
+        <v>0.01763966493442101</v>
       </c>
       <c r="H18" t="n">
-        <v>1294837339.192183</v>
+        <v>42006339.58873606</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1011,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.2438608636808672</v>
+        <v>0.6080300200661735</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1019,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2162279734.088775</v>
+        <v>42488026.28707985</v>
       </c>
       <c r="G19" t="n">
-        <v>-202593533.0869085</v>
+        <v>134967.5653423787</v>
       </c>
       <c r="H19" t="n">
-        <v>5794916.033832406</v>
+        <v>-1841.624020422774</v>
       </c>
     </row>
     <row r="20">
@@ -1034,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.1525845689101887</v>
+        <v>0.2167095171435388</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1054,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-82432971.5939959</v>
+        <v>10637.94086292832</v>
       </c>
       <c r="H20" t="n">
-        <v>1698174436.936866</v>
+        <v>44385249.49451773</v>
       </c>
     </row>
     <row r="21">
@@ -1066,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1075,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.386426207852817</v>
+        <v>0.3871072772894231</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1086,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-873398836.4657865</v>
+        <v>280598.0209028643</v>
       </c>
       <c r="H21" t="n">
-        <v>2681046734.42448</v>
+        <v>43789078.47930104</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1107,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.1390557963542066</v>
+        <v>0.2150617112984356</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1118,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03500403887003956</v>
+        <v>0.0002406361749263368</v>
       </c>
       <c r="H22" t="n">
-        <v>1018906273.088743</v>
+        <v>44382650.8415371</v>
       </c>
     </row>
     <row r="23">
@@ -1130,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.1390557963542066</v>
+        <v>0.2150617112984356</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1150,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9656015163106565</v>
+        <v>1.000240665130133</v>
       </c>
       <c r="H23" t="n">
-        <v>1018906273.088743</v>
+        <v>44382650.8415371</v>
       </c>
     </row>
     <row r="24">
@@ -1162,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1171,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.3614725900057956</v>
+        <v>0.384797517597928</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1182,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.3757465214966426</v>
+        <v>0.006352517263545435</v>
       </c>
       <c r="H24" t="n">
-        <v>1561956632.162534</v>
+        <v>43787436.80865127</v>
       </c>
     </row>
     <row r="25">
@@ -1194,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
+          <t>bcsstk10.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3584535517806124</v>
+        <v>0.4286513163591872</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1211,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3011112062.550127</v>
+        <v>43908957.85917117</v>
       </c>
       <c r="G25" t="n">
-        <v>-476314259.2779741</v>
+        <v>60612.86619907899</v>
       </c>
       <c r="H25" t="n">
-        <v>20730594.08863043</v>
+        <v>-1019.896435431643</v>
       </c>
     </row>
     <row r="26">
@@ -1226,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1235,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.003358860784955853</v>
+        <v>0.08679737049424732</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1246,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>16440.13049887544</v>
+        <v>430974318.4141738</v>
       </c>
       <c r="H26" t="n">
-        <v>64706821.27772519</v>
+        <v>3058118533026.329</v>
       </c>
     </row>
     <row r="27">
@@ -1258,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.001487895573378085</v>
+        <v>0.2385501920181493</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1278,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-727531.8614624313</v>
+        <v>44404210640.57525</v>
       </c>
       <c r="H27" t="n">
-        <v>69731918.13697632</v>
+        <v>2907543667062.41</v>
       </c>
     </row>
     <row r="28">
@@ -1290,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1299,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.0652827957188415</v>
+        <v>0.07939131123301087</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1310,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0007257909137240649</v>
+        <v>0.0001499807729130304</v>
       </c>
       <c r="H28" t="n">
-        <v>60306183.60961951</v>
+        <v>3054383212105.005</v>
       </c>
     </row>
     <row r="29">
@@ -1322,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.0652827957188415</v>
+        <v>0.07939131123301087</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1342,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.000726054363682</v>
+        <v>1.000149992020591</v>
       </c>
       <c r="H29" t="n">
-        <v>60306183.60961951</v>
+        <v>3054383212105.005</v>
       </c>
     </row>
     <row r="30">
@@ -1354,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1363,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1195591225110429</v>
+        <v>0.2228731415118436</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1374,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06530704707110747</v>
+        <v>0.01561759401451817</v>
       </c>
       <c r="H30" t="n">
-        <v>48990492.64313877</v>
+        <v>2896414628945.506</v>
       </c>
     </row>
     <row r="31">
@@ -1386,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.003522851454765932</v>
+        <v>0.1790671604694871</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1403,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>64183879.03909098</v>
+        <v>3000832346996.31</v>
       </c>
       <c r="G31" t="n">
-        <v>30573.704516016</v>
+        <v>2242118365.826149</v>
       </c>
       <c r="H31" t="n">
-        <v>-63.95282360697031</v>
+        <v>-10006320.70393353</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1427,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.02282839493452772</v>
+        <v>0.02128984385189214</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1438,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>333727.3853420861</v>
+        <v>1543813558.877011</v>
       </c>
       <c r="H32" t="n">
-        <v>45755308.98277216</v>
+        <v>2987106549025.013</v>
       </c>
     </row>
     <row r="33">
@@ -1450,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1459,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.01003084266450247</v>
+        <v>0.08435805074466513</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1470,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>6261182.918873108</v>
+        <v>146738218050.9537</v>
       </c>
       <c r="H33" t="n">
-        <v>38806439.76267666</v>
+        <v>2505578353678.982</v>
       </c>
     </row>
     <row r="34">
@@ -1482,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1508,7 +1526,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1534,7 +1552,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1560,7 +1578,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
+          <t>bcsstk13.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1569,7 +1587,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.03190954273190324</v>
+        <v>0.07317601847743738</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1577,13 +1595,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33113393.62363336</v>
+        <v>2747546319251.866</v>
       </c>
       <c r="G37" t="n">
-        <v>1158200.126155484</v>
+        <v>11546070575.17844</v>
       </c>
       <c r="H37" t="n">
-        <v>-9060.140008938441</v>
+        <v>-74090792.71334384</v>
       </c>
     </row>
     <row r="38">
@@ -1592,7 +1610,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1601,7 +1619,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.03060584859065654</v>
+        <v>0.6777750750743703</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1612,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>24113024.56958909</v>
+        <v>12280009.74170706</v>
       </c>
       <c r="H38" t="n">
-        <v>3402859527.437987</v>
+        <v>5787113564.608249</v>
       </c>
     </row>
     <row r="39">
@@ -1624,7 +1642,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1633,7 +1651,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0001493238501038331</v>
+        <v>0.8994740493880145</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1644,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>19995833.64335476</v>
+        <v>444357700.1457839</v>
       </c>
       <c r="H39" t="n">
-        <v>3784255694.264695</v>
+        <v>4726215572.013981</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1674,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1665,7 +1683,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1811460218809762</v>
+        <v>0.639061146019566</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1676,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01494100722164859</v>
+        <v>0.002017585423152458</v>
       </c>
       <c r="H40" t="n">
-        <v>2764671438.952018</v>
+        <v>5782514568.006534</v>
       </c>
     </row>
     <row r="41">
@@ -1688,7 +1706,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1697,7 +1715,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1811460218809762</v>
+        <v>0.639061146019566</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1708,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.015053182042034</v>
+        <v>1.002019622118127</v>
       </c>
       <c r="H41" t="n">
-        <v>2764671438.952018</v>
+        <v>5782514568.006534</v>
       </c>
     </row>
     <row r="42">
@@ -1720,7 +1738,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1729,7 +1747,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.1424232192946089</v>
+        <v>0.87011042800713</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1740,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1572828332217661</v>
+        <v>0.0739486735378876</v>
       </c>
       <c r="H42" t="n">
-        <v>2391256170.991465</v>
+        <v>4841354163.923923</v>
       </c>
     </row>
     <row r="43">
@@ -1752,7 +1770,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1761,7 +1779,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.03113851465097027</v>
+        <v>0.8824001478494283</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1769,13 +1787,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3481133569.424844</v>
+        <v>5335615683.700631</v>
       </c>
       <c r="G43" t="n">
-        <v>11419936.6798286</v>
+        <v>41558822.39963802</v>
       </c>
       <c r="H43" t="n">
-        <v>352585.7747155695</v>
+        <v>-348557.2935467971</v>
       </c>
     </row>
     <row r="44">
@@ -1784,7 +1802,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1793,7 +1811,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.02346482251122776</v>
+        <v>0.02835742911457835</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1804,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>35039862.66063285</v>
+        <v>20052757.22078545</v>
       </c>
       <c r="H44" t="n">
-        <v>3240964006.418197</v>
+        <v>5630253478.679665</v>
       </c>
     </row>
     <row r="45">
@@ -1816,7 +1834,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1825,7 +1843,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.00139404353171361</v>
+        <v>0.01972145021200767</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1836,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-80581695.17351691</v>
+        <v>414924862.6712046</v>
       </c>
       <c r="H45" t="n">
-        <v>3924194524.363132</v>
+        <v>4903777708.84647</v>
       </c>
     </row>
     <row r="46">
@@ -1848,7 +1866,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1856,9 +1874,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>0.1531368311257366</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -1867,12 +1883,8 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="n">
-        <v>0.02760739204476118</v>
-      </c>
-      <c r="H46" t="n">
-        <v>2232319539.15697</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1880,7 +1892,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1888,9 +1900,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>0.1531368311257366</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -1899,12 +1909,8 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
-      <c r="G47" t="n">
-        <v>1.027992007343189</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2232319539.15697</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1912,7 +1918,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1920,9 +1926,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>0.07135738738752416</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -1931,12 +1935,8 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.1778072634380009</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2147713894.658363</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
+          <t>bcsstk15.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.04033785309308362</v>
+        <v>0.02835847629942579</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3819368569.431093</v>
+        <v>5636882354.909386</v>
       </c>
       <c r="G49" t="n">
-        <v>-84630046.92824188</v>
+        <v>19503213.07738883</v>
       </c>
       <c r="H49" t="n">
-        <v>4273925.342459812</v>
+        <v>8586.627240571701</v>
       </c>
     </row>
     <row r="50">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1985,7 +1985,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0001100012774572621</v>
+        <v>0.6016507849842975</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1996,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>19439023.85760417</v>
+        <v>1183976.738308283</v>
       </c>
       <c r="H50" t="n">
-        <v>76016026398.30356</v>
+        <v>3464991515.015499</v>
       </c>
     </row>
     <row r="51">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.01863892709632906</v>
+        <v>0.767832490482395</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2028,10 +2028,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-1045138023.474036</v>
+        <v>15446973.23720848</v>
       </c>
       <c r="H51" t="n">
-        <v>77701560619.75638</v>
+        <v>3442036478.578087</v>
       </c>
     </row>
     <row r="52">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.003319542198340493</v>
+        <v>0.6008402624890399</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2060,10 +2060,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001432842122614437</v>
+        <v>0.0003407058757357555</v>
       </c>
       <c r="H52" t="n">
-        <v>75336004634.83641</v>
+        <v>3464994048.183843</v>
       </c>
     </row>
     <row r="53">
@@ -2072,7 +2072,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.003319542198340493</v>
+        <v>0.6008402624890399</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.001433869131344</v>
+        <v>1.000340763922575</v>
       </c>
       <c r="H53" t="n">
-        <v>75336004634.83641</v>
+        <v>3464994048.183843</v>
       </c>
     </row>
     <row r="54">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2113,7 +2113,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.006212021537909041</v>
+        <v>0.7670673739210917</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.008095866253595726</v>
+        <v>0.004445863154842931</v>
       </c>
       <c r="H54" t="n">
-        <v>76866267932.67258</v>
+        <v>3442174330.601363</v>
       </c>
     </row>
     <row r="55">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.04956320228628281</v>
+        <v>0.8950602663951834</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2153,13 +2153,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>79600335756.99126</v>
+        <v>3437487303.470897</v>
       </c>
       <c r="G55" t="n">
-        <v>-1772715655.486255</v>
+        <v>6115766.39458135</v>
       </c>
       <c r="H55" t="n">
-        <v>162923152.6676238</v>
+        <v>-189684.2175489706</v>
       </c>
     </row>
     <row r="56">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4.224274041053285e-05</v>
+        <v>0.6470865937272084</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2188,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-14125026.03741319</v>
+        <v>935597.1360771781</v>
       </c>
       <c r="H56" t="n">
-        <v>76184555103.61823</v>
+        <v>3474005831.969408</v>
       </c>
     </row>
     <row r="57">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.02514078709199368</v>
+        <v>0.7702108287593509</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-1312037231.514817</v>
+        <v>9042123.143339576</v>
       </c>
       <c r="H57" t="n">
-        <v>77980204894.0197</v>
+        <v>3462989427.764579</v>
       </c>
     </row>
     <row r="58">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.001767347202873736</v>
+        <v>0.646784190856196</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2252,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001225754112979134</v>
+        <v>0.000268789322113717</v>
       </c>
       <c r="H58" t="n">
-        <v>75438128753.53766</v>
+        <v>3474010185.290083</v>
       </c>
     </row>
     <row r="59">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.001767347202873736</v>
+        <v>0.646784190856196</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1.00122650565659</v>
+        <v>1.0002688254492</v>
       </c>
       <c r="H59" t="n">
-        <v>75438128753.53766</v>
+        <v>3474010185.290083</v>
       </c>
     </row>
     <row r="60">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.01014837611480237</v>
+        <v>0.7699272434068872</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2316,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.01118366648348696</v>
+        <v>0.002597856046745279</v>
       </c>
       <c r="H60" t="n">
-        <v>77118988479.6039</v>
+        <v>3463031613.265619</v>
       </c>
     </row>
     <row r="61">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
+          <t>bcsstk07.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.06860162533055654</v>
+        <v>0.9284838832915916</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2345,13 +2345,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>80789117532.37927</v>
+        <v>3454007604.544089</v>
       </c>
       <c r="G61" t="n">
-        <v>-2525704532.634368</v>
+        <v>5569332.759017095</v>
       </c>
       <c r="H61" t="n">
-        <v>251157950.6596957</v>
+        <v>-243880.822259996</v>
       </c>
     </row>
     <row r="62">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.1330055981004187</v>
+        <v>0.3218582369883141</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-385880756.1314488</v>
+        <v>34151.89522681252</v>
       </c>
       <c r="H62" t="n">
-        <v>9139718409.01152</v>
+        <v>62105842.20340354</v>
       </c>
     </row>
     <row r="63">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2401,7 +2401,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.3605880637384298</v>
+        <v>0.647723420995213</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-4821870783.227875</v>
+        <v>3669792.750445579</v>
       </c>
       <c r="H63" t="n">
-        <v>15314895134.1079</v>
+        <v>49518197.9781147</v>
       </c>
     </row>
     <row r="64">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.1234336125990307</v>
+        <v>0.2785967484129772</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02807552933457564</v>
+        <v>0.000566000155240321</v>
       </c>
       <c r="H64" t="n">
-        <v>5253156599.018009</v>
+        <v>61755766.73771978</v>
       </c>
     </row>
     <row r="65">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2465,7 +2465,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.1234336125990307</v>
+        <v>0.2785967484129772</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2476,10 +2476,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.972314925728466</v>
+        <v>1.000566160363553</v>
       </c>
       <c r="H65" t="n">
-        <v>5253156599.018009</v>
+        <v>61755766.73771978</v>
       </c>
     </row>
     <row r="66">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.3427372703561252</v>
+        <v>0.5902059054766208</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3550451905655885</v>
+        <v>0.062401430619559</v>
       </c>
       <c r="H66" t="n">
-        <v>8308145577.586983</v>
+        <v>49773861.50692283</v>
       </c>
     </row>
     <row r="67">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3180537527959396</v>
+        <v>0.5527862413779147</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2537,13 +2537,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>16251275771.47594</v>
+        <v>57557550.14516384</v>
       </c>
       <c r="G67" t="n">
-        <v>-2241069633.296078</v>
+        <v>150863.4382533011</v>
       </c>
       <c r="H67" t="n">
-        <v>84326767.14384678</v>
+        <v>-518.7179690066174</v>
       </c>
     </row>
     <row r="68">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1959028616143463</v>
+        <v>0.04105440056862771</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-850908890.1989931</v>
+        <v>388413.2653193348</v>
       </c>
       <c r="H68" t="n">
-        <v>11987483548.85458</v>
+        <v>42577107.35977915</v>
       </c>
     </row>
     <row r="69">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2593,7 +2593,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4412246666422233</v>
+        <v>0.07028864950830066</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2604,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-6900998365.376747</v>
+        <v>17779518.20279329</v>
       </c>
       <c r="H69" t="n">
-        <v>18023136601.21383</v>
+        <v>-4090662.322065538</v>
       </c>
     </row>
     <row r="70">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2624,9 +2624,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>0.1841193592713229</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -2635,12 +2633,8 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
-      <c r="G70" t="n">
-        <v>-0.06233870410467765</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6487810383.841975</v>
-      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2648,7 +2642,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2656,9 +2650,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>0.1841193592713229</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -2667,12 +2659,8 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>0.9395645985052338</v>
-      </c>
-      <c r="H71" t="n">
-        <v>6487810383.841975</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2680,7 +2668,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2688,9 +2676,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0.4226583267540829</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -2699,12 +2685,8 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>-0.5104134601871133</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10183909545.86524</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2712,7 +2694,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
+          <t>bcsstk09.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2721,7 +2703,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.4433489921677964</v>
+        <v>0.07676806946274513</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2729,13 +2711,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>22679460432.75389</v>
+        <v>15813790.95547426</v>
       </c>
       <c r="G73" t="n">
-        <v>-4860400221.661236</v>
+        <v>1938727.325324799</v>
       </c>
       <c r="H73" t="n">
-        <v>267299422.0974829</v>
+        <v>-16319.09536847857</v>
       </c>
     </row>
     <row r="74">
@@ -2744,7 +2726,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2753,7 +2735,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.08751086618322833</v>
+        <v>0.4287481624931127</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2764,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1877203012.029363</v>
+        <v>123125.7751675017</v>
       </c>
       <c r="H74" t="n">
-        <v>2886618046661.409</v>
+        <v>652225685.8162574</v>
       </c>
     </row>
     <row r="75">
@@ -2776,7 +2758,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2785,7 +2767,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.3196682597717414</v>
+        <v>0.6121786968060948</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2796,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>192347073874.2272</v>
+        <v>2077128.557893953</v>
       </c>
       <c r="H75" t="n">
-        <v>2246739950000.572</v>
+        <v>648656657.0278221</v>
       </c>
     </row>
     <row r="76">
@@ -2808,7 +2790,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2817,7 +2799,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.06397650573942237</v>
+        <v>0.4278224052797011</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2828,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001086259628838498</v>
+        <v>0.0001885712797862336</v>
       </c>
       <c r="H76" t="n">
-        <v>2733462254585.585</v>
+        <v>652223455.5009588</v>
       </c>
     </row>
     <row r="77">
@@ -2840,7 +2822,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2849,7 +2831,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.06397650573942237</v>
+        <v>0.4278224052797011</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2860,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>1.001086849822511</v>
+        <v>1.000188589060468</v>
       </c>
       <c r="H77" t="n">
-        <v>2733462254585.585</v>
+        <v>652223455.5009588</v>
       </c>
     </row>
     <row r="78">
@@ -2872,7 +2854,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2881,7 +2863,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.2475749481032271</v>
+        <v>0.6111454793920096</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2892,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1145598150368211</v>
+        <v>0.003181943885820556</v>
       </c>
       <c r="H78" t="n">
-        <v>1862001390053.591</v>
+        <v>648666756.3370882</v>
       </c>
     </row>
     <row r="79">
@@ -2904,7 +2886,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2913,7 +2895,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.2054086701744549</v>
+        <v>0.7123346505300391</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2921,13 +2903,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2634829406950.425</v>
+        <v>648587942.6493345</v>
       </c>
       <c r="G79" t="n">
-        <v>10364460530.37719</v>
+        <v>658246.9839718711</v>
       </c>
       <c r="H79" t="n">
-        <v>-47950607.44829286</v>
+        <v>-16215.79420619354</v>
       </c>
     </row>
     <row r="80">
@@ -2936,7 +2918,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2945,7 +2927,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.08841079190259141</v>
+        <v>0.8546195824365274</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2956,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>4415075777.134131</v>
+        <v>64551.36835094314</v>
       </c>
       <c r="H80" t="n">
-        <v>2734484537076.225</v>
+        <v>653904294.8516937</v>
       </c>
     </row>
     <row r="81">
@@ -2968,7 +2950,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2977,7 +2959,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2882286991196538</v>
+        <v>0.8320744933727988</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2988,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>319708077469.2056</v>
+        <v>663349.1997002794</v>
       </c>
       <c r="H81" t="n">
-        <v>1778943134831.126</v>
+        <v>653072726.3029791</v>
       </c>
     </row>
     <row r="82">
@@ -3000,7 +2982,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3008,7 +2990,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="n">
+        <v>0.8545423399402475</v>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -3017,8 +3001,12 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="n">
+        <v>9.861055122981919e-05</v>
+      </c>
+      <c r="H82" t="n">
+        <v>653904612.6600547</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3026,7 +3014,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3034,7 +3022,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="n">
+        <v>0.8545423399402475</v>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -3043,8 +3033,12 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="n">
+        <v>1.00009861541341</v>
+      </c>
+      <c r="H83" t="n">
+        <v>653904612.6600547</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3052,7 +3046,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3060,7 +3054,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="n">
+        <v>0.832022969467384</v>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -3069,8 +3065,12 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="n">
+        <v>0.001013365987771692</v>
+      </c>
+      <c r="H84" t="n">
+        <v>653074444.1397021</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
+          <t>bcsstk11.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.2287866074942104</v>
+        <v>0.8616888318525289</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2256758047288.472</v>
+        <v>653713942.3058678</v>
       </c>
       <c r="G85" t="n">
-        <v>26129916222.03199</v>
+        <v>102293.6834717777</v>
       </c>
       <c r="H85" t="n">
-        <v>-165762140.8007469</v>
+        <v>-1640.970222642799</v>
       </c>
     </row>
     <row r="86">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3119,7 +3119,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.09898473233220707</v>
+        <v>0.4841134994987475</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-34540968.10576875</v>
+        <v>39177203.88860318</v>
       </c>
       <c r="H86" t="n">
-        <v>1322016909.183076</v>
+        <v>3055709147.174109</v>
       </c>
     </row>
     <row r="87">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.3070345963419571</v>
+        <v>0.7085853924691564</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-592580394.2718903</v>
+        <v>787273628.1359935</v>
       </c>
       <c r="H87" t="n">
-        <v>2257963255.765442</v>
+        <v>1580079570.731312</v>
       </c>
     </row>
     <row r="88">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.08785566487569758</v>
+        <v>0.4585837682199164</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01446723229478183</v>
+        <v>0.01175931375766669</v>
       </c>
       <c r="H88" t="n">
-        <v>865347907.1555477</v>
+        <v>3002128729.121943</v>
       </c>
     </row>
     <row r="89">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3215,7 +3215,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.08785566487569758</v>
+        <v>0.4585837682199164</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3226,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.9856369152631295</v>
+        <v>1.011828726302156</v>
       </c>
       <c r="H89" t="n">
-        <v>865347907.1555477</v>
+        <v>3002128729.121943</v>
       </c>
     </row>
     <row r="90">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.2825624255732765</v>
+        <v>0.6843117406946874</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3258,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.2527324440890055</v>
+        <v>0.2385994292961146</v>
       </c>
       <c r="H90" t="n">
-        <v>1294837339.192183</v>
+        <v>1915194052.304641</v>
       </c>
     </row>
     <row r="91">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.2438608636808672</v>
+        <v>0.8422594270051724</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3287,13 +3287,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2162279734.088775</v>
+        <v>1705722453.719368</v>
       </c>
       <c r="G91" t="n">
-        <v>-202593533.0869085</v>
+        <v>207925540.5704463</v>
       </c>
       <c r="H91" t="n">
-        <v>5794916.033832406</v>
+        <v>-4218708.417046074</v>
       </c>
     </row>
     <row r="92">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.1525845689101887</v>
+        <v>0.2352017278407992</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-82432971.5939959</v>
+        <v>79356074.36667262</v>
       </c>
       <c r="H92" t="n">
-        <v>1698174436.936866</v>
+        <v>2425467421.453407</v>
       </c>
     </row>
     <row r="93">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.386426207852817</v>
+        <v>0.293189639999146</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3354,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-873398836.4657865</v>
+        <v>1218828320.938483</v>
       </c>
       <c r="H93" t="n">
-        <v>2681046734.42448</v>
+        <v>442510072.4166642</v>
       </c>
     </row>
     <row r="94">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3375,7 +3375,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.1390557963542066</v>
+        <v>0.2424429772436412</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3386,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03500403887003956</v>
+        <v>0.03443008601647302</v>
       </c>
       <c r="H94" t="n">
-        <v>1018906273.088743</v>
+        <v>1970303077.032432</v>
       </c>
     </row>
     <row r="95">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.1390557963542066</v>
+        <v>0.2424429772436412</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9656015163106565</v>
+        <v>1.035029662799666</v>
       </c>
       <c r="H95" t="n">
-        <v>1018906273.088743</v>
+        <v>1970303077.032432</v>
       </c>
     </row>
     <row r="96">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3439,7 +3439,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.3614725900057956</v>
+        <v>0.2820428665353024</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3450,10 +3450,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.3757465214966426</v>
+        <v>0.510856788046678</v>
       </c>
       <c r="H96" t="n">
-        <v>1561956632.162534</v>
+        <v>874379232.9249516</v>
       </c>
     </row>
     <row r="97">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
+          <t>bcsstk16.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.3584535517806124</v>
+        <v>0.3500617619926406</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3011112062.550127</v>
+        <v>438246132.3641772</v>
       </c>
       <c r="G97" t="n">
-        <v>-476314259.2779741</v>
+        <v>379314004.7952359</v>
       </c>
       <c r="H97" t="n">
-        <v>20730594.08863043</v>
+        <v>-9373685.325892599</v>
       </c>
     </row>
     <row r="98">
@@ -3494,7 +3494,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.1330055981004187</v>
+        <v>0.6016507849842975</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-385880756.1314488</v>
+        <v>1183976.738308283</v>
       </c>
       <c r="H98" t="n">
-        <v>9139718409.01152</v>
+        <v>3464991515.015499</v>
       </c>
     </row>
     <row r="99">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3535,7 +3535,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.3605880637384298</v>
+        <v>0.767832490482395</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3546,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-4821870783.227875</v>
+        <v>15446973.23720848</v>
       </c>
       <c r="H99" t="n">
-        <v>15314895134.1079</v>
+        <v>3442036478.578087</v>
       </c>
     </row>
     <row r="100">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.1234336125990307</v>
+        <v>0.6008402624890399</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3578,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.02807552933457564</v>
+        <v>0.0003407058757357555</v>
       </c>
       <c r="H100" t="n">
-        <v>5253156599.018009</v>
+        <v>3464994048.183843</v>
       </c>
     </row>
     <row r="101">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.1234336125990307</v>
+        <v>0.6008402624890399</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3610,10 +3610,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.972314925728466</v>
+        <v>1.000340763922575</v>
       </c>
       <c r="H101" t="n">
-        <v>5253156599.018009</v>
+        <v>3464994048.183843</v>
       </c>
     </row>
     <row r="102">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.3427372703561252</v>
+        <v>0.7670673739210917</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3642,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3550451905655885</v>
+        <v>0.004445863154842931</v>
       </c>
       <c r="H102" t="n">
-        <v>8308145577.586983</v>
+        <v>3442174330.601363</v>
       </c>
     </row>
     <row r="103">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3663,7 +3663,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.3180537527959396</v>
+        <v>0.8950602663951834</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3671,13 +3671,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>16251275771.47594</v>
+        <v>3437487303.470897</v>
       </c>
       <c r="G103" t="n">
-        <v>-2241069633.296078</v>
+        <v>6115766.39458135</v>
       </c>
       <c r="H103" t="n">
-        <v>84326767.14384678</v>
+        <v>-189684.2175489706</v>
       </c>
     </row>
     <row r="104">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.1959028616143463</v>
+        <v>0.6470865937272084</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-850908890.1989931</v>
+        <v>935597.1360771781</v>
       </c>
       <c r="H104" t="n">
-        <v>11987483548.85458</v>
+        <v>3474005831.969408</v>
       </c>
     </row>
     <row r="105">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.4412246666422233</v>
+        <v>0.7702108287593509</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-6900998365.376747</v>
+        <v>9042123.143339576</v>
       </c>
       <c r="H105" t="n">
-        <v>18023136601.21383</v>
+        <v>3462989427.764579</v>
       </c>
     </row>
     <row r="106">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3759,7 +3759,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.1841193592713229</v>
+        <v>0.646784190856196</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.06233870410467765</v>
+        <v>0.000268789322113717</v>
       </c>
       <c r="H106" t="n">
-        <v>6487810383.841975</v>
+        <v>3474010185.290083</v>
       </c>
     </row>
     <row r="107">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1841193592713229</v>
+        <v>0.646784190856196</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9395645985052338</v>
+        <v>1.0002688254492</v>
       </c>
       <c r="H107" t="n">
-        <v>6487810383.841975</v>
+        <v>3474010185.290083</v>
       </c>
     </row>
     <row r="108">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.4226583267540829</v>
+        <v>0.7699272434068872</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.5104134601871133</v>
+        <v>0.002597856046745279</v>
       </c>
       <c r="H108" t="n">
-        <v>10183909545.86524</v>
+        <v>3463031613.265619</v>
       </c>
     </row>
     <row r="109">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
+          <t>bcsstk06.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.4433489921677964</v>
+        <v>0.9284838832915916</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3863,13 +3863,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>22679460432.75389</v>
+        <v>3454007604.544089</v>
       </c>
       <c r="G109" t="n">
-        <v>-4860400221.661236</v>
+        <v>5569332.759017095</v>
       </c>
       <c r="H109" t="n">
-        <v>267299422.0974829</v>
+        <v>-243880.822259996</v>
       </c>
     </row>
     <row r="110">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.0003959636779809271</v>
+        <v>0.6625198793784344</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>7141.020104736104</v>
+        <v>16741395.52857143</v>
       </c>
       <c r="H110" t="n">
-        <v>44361496.26411776</v>
+        <v>76420993942.37769</v>
       </c>
     </row>
     <row r="111">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.009883029049133194</v>
+        <v>0.7490315660670769</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3930,10 +3930,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-638344.3644662297</v>
+        <v>128718001.7547292</v>
       </c>
       <c r="H111" t="n">
-        <v>46515097.12135945</v>
+        <v>76290698231.24675</v>
       </c>
     </row>
     <row r="112">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.01485864428866388</v>
+        <v>0.6624165455373963</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0008687584762982917</v>
+        <v>0.0002187670611809673</v>
       </c>
       <c r="H112" t="n">
-        <v>43197549.78761574</v>
+        <v>76421055351.10599</v>
       </c>
     </row>
     <row r="113">
@@ -3974,7 +3974,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3983,7 +3983,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.01485864428866388</v>
+        <v>0.6624165455373963</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.000869135956248</v>
+        <v>1.00021879099244</v>
       </c>
       <c r="H113" t="n">
-        <v>43197549.78761574</v>
+        <v>76421055351.10599</v>
       </c>
     </row>
     <row r="114">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.005029324033717621</v>
+        <v>0.7489329406528165</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.009043607024126307</v>
+        <v>0.001682034278939058</v>
       </c>
       <c r="H114" t="n">
-        <v>43052963.31516653</v>
+        <v>76291046143.18422</v>
       </c>
     </row>
     <row r="115">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.001505588837720172</v>
+        <v>0.9408581067727793</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>44809624.82900579</v>
+        <v>76024763356.2706</v>
       </c>
       <c r="G115" t="n">
-        <v>-40030.40777821472</v>
+        <v>128181247.8711624</v>
       </c>
       <c r="H115" t="n">
-        <v>842.3469264812612</v>
+        <v>-7429323.489503996</v>
       </c>
     </row>
     <row r="116">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.001174043722421695</v>
+        <v>0.6675235447643602</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4090,10 +4090,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-16990.65585394835</v>
+        <v>7710197.281835938</v>
       </c>
       <c r="H116" t="n">
-        <v>45167691.06560991</v>
+        <v>76507598507.17313</v>
       </c>
     </row>
     <row r="117">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.0279802887679959</v>
+        <v>0.7426658023217213</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4122,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-1210282.846404718</v>
+        <v>55370167.59198249</v>
       </c>
       <c r="H117" t="n">
-        <v>48232431.84594874</v>
+        <v>76454995896.17465</v>
       </c>
     </row>
     <row r="118">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4143,7 +4143,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.004922153264847362</v>
+        <v>0.6674949652749357</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4154,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0006891739312370822</v>
+        <v>0.0001007155484330724</v>
       </c>
       <c r="H118" t="n">
-        <v>43736080.9922949</v>
+        <v>76507611164.60248</v>
       </c>
     </row>
     <row r="119">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4175,7 +4175,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.004922153264847362</v>
+        <v>0.6674949652749357</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4186,10 +4186,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>1.000689411466155</v>
+        <v>1.000100720620414</v>
       </c>
       <c r="H119" t="n">
-        <v>43736080.9922949</v>
+        <v>76507611164.60248</v>
       </c>
     </row>
     <row r="120">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>9.050617756151261e-06</v>
+        <v>0.7426383680939589</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4218,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0004312043770998959</v>
+        <v>0.0007232828125207356</v>
       </c>
       <c r="H120" t="n">
-        <v>44365037.03936833</v>
+        <v>76455058304.25409</v>
       </c>
     </row>
     <row r="121">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
+          <t>bcsstk08.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4239,7 +4239,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.008259928138286535</v>
+        <v>0.9526408977446362</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4247,13 +4247,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>46436587.57733122</v>
+        <v>76307438244.85379</v>
       </c>
       <c r="G121" t="n">
-        <v>-182498.8965132537</v>
+        <v>67332403.07914753</v>
       </c>
       <c r="H121" t="n">
-        <v>3677.960903540132</v>
+        <v>-4258728.985523748</v>
       </c>
     </row>
   </sheetData>
